--- a/Resources/map/mapJSON/0-2.xlsx
+++ b/Resources/map/mapJSON/0-2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\OOPL\ArkNights\Resources\map\mapJSON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guava\Downloads\ArkNights-master\ArkNights-master\Resources\map\mapJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBA8D8-18F5-496F-AF72-025D90FE8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C2FBCD-9943-43FB-9C48-ED50C14DC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C12E681D-7D0F-4F9A-823A-65477C95AF28}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C12E681D-7D0F-4F9A-823A-65477C95AF28}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,12 +68,6 @@
     <t>A9</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
     <t>B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,12 +96,6 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
     <t>C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,12 +124,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,12 +152,6 @@
     <t>D9</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>E1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,46 +178,6 @@
   </si>
   <si>
     <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
   </si>
 </sst>
 </file>
@@ -605,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA5B038-5888-4712-A9B4-9F9A77A59890}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,734 +560,504 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1006</v>
+        <v>160</v>
       </c>
       <c r="C11">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1106</v>
+        <v>257</v>
       </c>
       <c r="C12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="C13">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="C14">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>352</v>
+        <v>551</v>
       </c>
       <c r="C15">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="C16">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>546</v>
+        <v>746</v>
       </c>
       <c r="C17">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>642</v>
+        <v>751</v>
       </c>
       <c r="C18">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>738</v>
+        <v>941</v>
       </c>
       <c r="C19">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>840</v>
+        <v>135</v>
       </c>
       <c r="C20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>936</v>
+        <v>237</v>
       </c>
       <c r="C21">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1032</v>
+        <v>341</v>
       </c>
       <c r="C22">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1120</v>
+        <v>443</v>
       </c>
       <c r="C23">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>136</v>
+        <v>549</v>
       </c>
       <c r="C24">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>234</v>
+        <v>649</v>
       </c>
       <c r="C25">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>323</v>
+        <v>755</v>
       </c>
       <c r="C26">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>438</v>
+        <v>765</v>
       </c>
       <c r="C27">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>540</v>
+        <v>961</v>
       </c>
       <c r="C28">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>642</v>
+        <v>110</v>
       </c>
       <c r="C29">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>742</v>
+        <v>217</v>
       </c>
       <c r="C30">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>856</v>
+        <v>327</v>
       </c>
       <c r="C31">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>962</v>
+        <v>434</v>
       </c>
       <c r="C32">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1056</v>
+        <v>547</v>
       </c>
       <c r="C33">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1176</v>
+        <v>651</v>
       </c>
       <c r="C34">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>764</v>
       </c>
       <c r="C35">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>212</v>
+        <v>779</v>
       </c>
       <c r="C36">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>306</v>
+        <v>981</v>
       </c>
       <c r="C37">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="C38">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>532</v>
+        <v>197</v>
       </c>
       <c r="C39">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>644</v>
+        <v>313</v>
       </c>
       <c r="C40">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>748</v>
+        <v>425</v>
       </c>
       <c r="C41">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="C42">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>984</v>
+        <v>653</v>
       </c>
       <c r="C43">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1078</v>
+        <v>773</v>
       </c>
       <c r="C44">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1212</v>
+        <v>793</v>
       </c>
       <c r="C45">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>1001</v>
       </c>
       <c r="C46">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>188</v>
-      </c>
-      <c r="C47">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>298</v>
-      </c>
-      <c r="C48">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>412</v>
-      </c>
-      <c r="C49">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>528</v>
-      </c>
-      <c r="C50">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>640</v>
-      </c>
-      <c r="C51">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>752</v>
-      </c>
-      <c r="C52">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>874</v>
-      </c>
-      <c r="C53">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>994</v>
-      </c>
-      <c r="C54">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>1104</v>
-      </c>
-      <c r="C55">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>1208</v>
-      </c>
-      <c r="C56">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>148</v>
-      </c>
-      <c r="C58">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>272</v>
-      </c>
-      <c r="C59">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>400</v>
-      </c>
-      <c r="C60">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>524</v>
-      </c>
-      <c r="C61">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>644</v>
-      </c>
-      <c r="C62">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>764</v>
-      </c>
-      <c r="C63">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>880</v>
-      </c>
-      <c r="C64">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>1000</v>
-      </c>
-      <c r="C65">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>1120</v>
-      </c>
-      <c r="C66">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>1280</v>
-      </c>
-      <c r="C67">
-        <v>574</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/map/mapJSON/0-2.xlsx
+++ b/Resources/map/mapJSON/0-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guava\Downloads\ArkNights-master\ArkNights-master\Resources\map\mapJSON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\OOPL\ArkNights\Resources\map\mapJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C2FBCD-9943-43FB-9C48-ED50C14DC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AACF991-50AF-4C54-B28C-538FE2D5C65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C12E681D-7D0F-4F9A-823A-65477C95AF28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C12E681D-7D0F-4F9A-823A-65477C95AF28}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>B7</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
@@ -178,6 +175,10 @@
   </si>
   <si>
     <t>E9</t>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,15 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA5B038-5888-4712-A9B4-9F9A77A59890}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -568,10 +570,10 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -579,10 +581,10 @@
         <v>277</v>
       </c>
       <c r="C3">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,10 +592,10 @@
         <v>369</v>
       </c>
       <c r="C4">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -601,10 +603,10 @@
         <v>461</v>
       </c>
       <c r="C5">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -612,10 +614,10 @@
         <v>553</v>
       </c>
       <c r="C6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -623,10 +625,10 @@
         <v>645</v>
       </c>
       <c r="C7">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -634,10 +636,10 @@
         <v>737</v>
       </c>
       <c r="C8">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -645,10 +647,10 @@
         <v>829</v>
       </c>
       <c r="C9">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -656,10 +658,10 @@
         <v>921</v>
       </c>
       <c r="C10">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -667,10 +669,10 @@
         <v>160</v>
       </c>
       <c r="C11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -678,10 +680,10 @@
         <v>257</v>
       </c>
       <c r="C12">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -689,10 +691,10 @@
         <v>355</v>
       </c>
       <c r="C13">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -700,10 +702,10 @@
         <v>452</v>
       </c>
       <c r="C14">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -711,10 +713,10 @@
         <v>551</v>
       </c>
       <c r="C15">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -722,10 +724,10 @@
         <v>647</v>
       </c>
       <c r="C16">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -733,34 +735,34 @@
         <v>746</v>
       </c>
       <c r="C17">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>851</v>
+      </c>
+      <c r="C18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
-      </c>
-      <c r="B18">
-        <v>751</v>
-      </c>
-      <c r="C18">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>20</v>
       </c>
       <c r="B19">
         <v>941</v>
       </c>
       <c r="C19">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>135</v>
@@ -769,9 +771,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>237</v>
@@ -780,9 +782,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>341</v>
@@ -791,9 +793,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>443</v>
@@ -802,9 +804,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>549</v>
@@ -813,9 +815,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>649</v>
@@ -824,9 +826,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>755</v>
@@ -835,20 +837,20 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>765</v>
+        <v>865</v>
       </c>
       <c r="C27">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>961</v>
@@ -857,9 +859,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>110</v>
@@ -868,9 +870,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>217</v>
@@ -879,9 +881,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>327</v>
@@ -890,9 +892,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>434</v>
@@ -901,9 +903,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>547</v>
@@ -912,9 +914,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>651</v>
@@ -923,9 +925,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>764</v>
@@ -934,20 +936,20 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>779</v>
+        <v>879</v>
       </c>
       <c r="C36">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>981</v>
@@ -956,9 +958,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>85</v>
@@ -967,9 +969,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>197</v>
@@ -978,9 +980,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>313</v>
@@ -989,9 +991,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>425</v>
@@ -1000,9 +1002,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>545</v>
@@ -1011,9 +1013,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>653</v>
@@ -1022,9 +1024,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>773</v>
@@ -1033,20 +1035,20 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="C45">
         <v>505</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1001</v>
